--- a/files/26_09_2022.xlsx
+++ b/files/26_09_2022.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgand\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgand\go\src\github.com\gandharvas\crs\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{564DCCCB-ABB8-442C-8DCA-E3812DA84B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECECC572-0C41-4DF7-BA69-C19335C7EB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{667EEE24-0357-4A74-9789-2CF5245EFEB5}"/>
   </bookViews>
@@ -120,9 +120,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,47 +438,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07ACE588-31F0-4AD7-B29B-A3263BCF6704}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <v>479</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1">
         <v>4411</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1">
         <v>64097</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" s="2">
+        <v>44832</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -485,7 +502,7 @@
         <v>5985</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -493,7 +510,7 @@
         <v>9572</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -501,7 +518,7 @@
         <v>19151</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -509,7 +526,7 @@
         <v>16562</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -517,7 +534,7 @@
         <v>12827</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -525,7 +542,7 @@
         <v>58143</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -533,7 +550,7 @@
         <v>12259</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -541,7 +558,7 @@
         <v>12673</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -549,7 +566,7 @@
         <v>9802</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -557,7 +574,7 @@
         <v>11209</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -565,7 +582,7 @@
         <v>12200</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -575,5 +592,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/files/26_09_2022.xlsx
+++ b/files/26_09_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgand\go\src\github.com\gandharvas\crs\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECECC572-0C41-4DF7-BA69-C19335C7EB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A05F72B-B3E7-4310-9C54-8269CB565A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{667EEE24-0357-4A74-9789-2CF5245EFEB5}"/>
   </bookViews>
@@ -123,7 +123,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,7 +447,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">

--- a/files/26_09_2022.xlsx
+++ b/files/26_09_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgand\go\src\github.com\gandharvas\crs\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECECC572-0C41-4DF7-BA69-C19335C7EB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2F8455-54B4-4C0F-B6C3-117A7A705C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{667EEE24-0357-4A74-9789-2CF5245EFEB5}"/>
   </bookViews>
@@ -123,7 +123,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,7 +447,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">

--- a/files/26_09_2022.xlsx
+++ b/files/26_09_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgand\go\src\github.com\gandharvas\crs\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2F8455-54B4-4C0F-B6C3-117A7A705C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01527089-9033-4D6C-AD51-38E026B6EFB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{667EEE24-0357-4A74-9789-2CF5245EFEB5}"/>
   </bookViews>
@@ -441,7 +441,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
